--- a/Scrum/SCRUM_Board.xlsx
+++ b/Scrum/SCRUM_Board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ohfound\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CBDFD0-E7AD-47F5-ADDF-FDA41BC9A14B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680F904A-C3B6-4C0F-913F-C4337C22749F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -106,6 +106,42 @@
   </si>
   <si>
     <t>Inserat erstellen (Android)</t>
+  </si>
+  <si>
+    <t>Listenansicht von Überbegriffen (JavaFX)</t>
+  </si>
+  <si>
+    <t>Listenansicht der verlorenen Geg. (JavaFX)</t>
+  </si>
+  <si>
+    <t>Default Bild (JavaFX)</t>
+  </si>
+  <si>
+    <t>Gegenstand/Überbegriff filtern (JavaFx)</t>
+  </si>
+  <si>
+    <t>Login/Registrieren (JavaFX)</t>
+  </si>
+  <si>
+    <t>Gegenstand einfügen (JavaFX)</t>
+  </si>
+  <si>
+    <t>Gegenstand löschen (JavaFX)</t>
+  </si>
+  <si>
+    <t>Gegenstand Updaten (JavaFX)</t>
+  </si>
+  <si>
+    <t>Detailansicht von den Gegenaständen (JavaFX)</t>
+  </si>
+  <si>
+    <t>MySQL Datenbank anlegen - DJA</t>
+  </si>
+  <si>
+    <t>W.Service für FX - DJA</t>
+  </si>
+  <si>
+    <t>Djedovic</t>
   </si>
 </sst>
 </file>
@@ -129,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +175,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,11 +212,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -471,18 +521,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="30.7109375" customWidth="1"/>
+    <col min="1" max="3" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,111 +555,137 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:F1 A23:F1048576 B2 B10:F22 A11:A22 B7:F8 C6:F6 D9:F9 B5:F5 C2:F4">
+  <conditionalFormatting sqref="A1:F1 A33:F1048576 F27:F30 C8:F8 A2:B4 B25:E26 E3:E5 E9:F9 B24:C24 E24:F24 B28:D30 B27:C27 D6 D31:F31 C4:D5 C7:D7 C10:F10 C32:F32 A23:F23 B11:F22 A5:A16 C2:F3 F4:F5">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",A1)))</formula>
     </cfRule>

--- a/Scrum/SCRUM_Board.xlsx
+++ b/Scrum/SCRUM_Board.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ohfound\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3809E4C0-DD1C-4EFE-996D-1D33C7355FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="5430" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -44,48 +45,27 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Fullscreen Map (Android)</t>
-  </si>
-  <si>
     <t>Fullscreen Map (Web)</t>
   </si>
   <si>
-    <t>Searchbar (Android)</t>
-  </si>
-  <si>
     <t>Searchbar (Web)</t>
   </si>
   <si>
-    <t>Item Listing (Android)</t>
-  </si>
-  <si>
     <t>Item Listing (Web)</t>
   </si>
   <si>
     <t>Inserat erstellen (Web)</t>
   </si>
   <si>
-    <t>Account registration (Android)</t>
-  </si>
-  <si>
     <t>Account registration (Web)</t>
   </si>
   <si>
-    <t>Wizard Suche (Android)</t>
-  </si>
-  <si>
     <t>Wizard Suche (Web)</t>
   </si>
   <si>
-    <t>Wizard Freigabe (Android)</t>
-  </si>
-  <si>
     <t>Wizard Freigabe (Web)</t>
   </si>
   <si>
-    <t>Inserat erstellen (Android)</t>
-  </si>
-  <si>
     <t>Listenansicht von Überbegriffen (JavaFX)</t>
   </si>
   <si>
@@ -122,12 +102,6 @@
     <t>Djedovic</t>
   </si>
   <si>
-    <t>List der Aktivitäten anzeigen (WPF)</t>
-  </si>
-  <si>
-    <t>Aktivitäten verdächtigen (WPF)</t>
-  </si>
-  <si>
     <t>Aktivitäten entdächtigen (WPF)</t>
   </si>
   <si>
@@ -159,12 +133,36 @@
   </si>
   <si>
     <t>Mikula</t>
+  </si>
+  <si>
+    <t>Use Case Diagramm - DJA</t>
+  </si>
+  <si>
+    <t>Fullscreen Map (Android) IT3</t>
+  </si>
+  <si>
+    <t>Searchbar (Android) IT3</t>
+  </si>
+  <si>
+    <t>Item Listing (Android) IT3</t>
+  </si>
+  <si>
+    <t>Inserat erstellen (Android) IT3</t>
+  </si>
+  <si>
+    <t>Account registration (Android) IT3</t>
+  </si>
+  <si>
+    <t>Wizard Suche (Android) IT3</t>
+  </si>
+  <si>
+    <t>Wizard Freigabe (Android) IT3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,175 +245,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
@@ -838,11 +668,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,7 +680,7 @@
     <col min="1" max="3" width="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -875,228 +705,237 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>32</v>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
-        <v>35</v>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>38</v>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>42</v>
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="4" t="s">
-        <v>43</v>
+      <c r="F17" t="s">
+        <v>28</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:F1 A33:F1048576 F27:F30 A2:B4 B25:E26 E3:E5 B24:C24 E24:F24 B28:D30 B27:C27 D31:F31 C4:D5 C10:D10 C32:F32 A23:F23 B18:F22 E2:F2 D3:F3 A7:A16 A5 B11:D17 D6 C7:D8 F4:F8">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Web">
+  <conditionalFormatting sqref="A1:F1 A33:F1048576 B25:E26 B24:C24 B28:D30 B27:C27 C10:D10 A7:A16 B11:D17 D6 C7:D8 A2:B3 A4:A5 C5:D5 E2:F2 B18:E22 E24 D31:E31 F22 C32:E32 A23:F23 F3:F15">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="WPF">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="WPF">
       <formula>NOT(ISERROR(SEARCH("WPF",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F11">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",F9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="WPF">
-      <formula>NOT(ISERROR(SEARCH("WPF",F9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",F9)))</formula>
+  <conditionalFormatting sqref="F15:F17">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",F15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="WPF">
+      <formula>NOT(ISERROR(SEARCH("WPF",F15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F14">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",F12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="WPF">
-      <formula>NOT(ISERROR(SEARCH("WPF",F12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",F12)))</formula>
+  <conditionalFormatting sqref="F18:F20">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="WPF">
+      <formula>NOT(ISERROR(SEARCH("WPF",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",F15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="WPF">
-      <formula>NOT(ISERROR(SEARCH("WPF",F15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",F15)))</formula>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",F21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="WPF">
+      <formula>NOT(ISERROR(SEARCH("WPF",F21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",F17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="WPF">
-      <formula>NOT(ISERROR(SEARCH("WPF",F17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",F17)))</formula>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="WPF">
+      <formula>NOT(ISERROR(SEARCH("WPF",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",F16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="WPF">
-      <formula>NOT(ISERROR(SEARCH("WPF",F16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",F16)))</formula>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",F22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="WPF">
+      <formula>NOT(ISERROR(SEARCH("WPF",F22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="WPF">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="WPF">
       <formula>NOT(ISERROR(SEARCH("WPF",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",G17)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Scrum/SCRUM_Board.xlsx
+++ b/Scrum/SCRUM_Board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ohfound\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3809E4C0-DD1C-4EFE-996D-1D33C7355FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE50BE66-274F-46F0-BB04-F2FE527D7768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5430" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -157,6 +157,21 @@
   </si>
   <si>
     <t>Wizard Freigabe (Android) IT3</t>
+  </si>
+  <si>
+    <t>Pratljacic</t>
+  </si>
+  <si>
+    <t>MongoDB Datenbank erstellt (Web)</t>
+  </si>
+  <si>
+    <t>NodeJS Webservice implementiert (Web)</t>
+  </si>
+  <si>
+    <t>Routing in der React Webapp (Web)</t>
+  </si>
+  <si>
+    <t>Location Listing (Web)</t>
   </si>
 </sst>
 </file>
@@ -180,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +226,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -233,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,11 +262,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -669,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,12 +750,6 @@
       <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
@@ -721,9 +758,6 @@
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
@@ -861,82 +895,131 @@
         <v>34</v>
       </c>
     </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:F1 A33:F1048576 B25:E26 B24:C24 B28:D30 B27:C27 C10:D10 A7:A16 B11:D17 D6 C7:D8 A2:B3 A4:A5 C5:D5 E2:F2 B18:E22 E24 D31:E31 F22 C32:E32 A23:F23 F3:F15">
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Web">
+  <conditionalFormatting sqref="A1:F1 A33:F1048576 B25:E26 B24:C24 B28:D30 B27:C27 C10:D10 A7:A16 B11:D17 D6 C7:D8 C5:D5 B18:E22 E24 D31:E31 F22 C32:E32 A23:F23 A2:A5 F2:F15 F24:F30">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="WPF">
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="WPF">
       <formula>NOT(ISERROR(SEARCH("WPF",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F17">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="WPF">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="WPF">
       <formula>NOT(ISERROR(SEARCH("WPF",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F20">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",F18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="WPF">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="WPF">
       <formula>NOT(ISERROR(SEARCH("WPF",F18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="WPF">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="WPF">
       <formula>NOT(ISERROR(SEARCH("WPF",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",F23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="WPF">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="WPF">
       <formula>NOT(ISERROR(SEARCH("WPF",F23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Web">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Web">
       <formula>NOT(ISERROR(SEARCH("Web",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="WPF">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="WPF">
       <formula>NOT(ISERROR(SEARCH("WPF",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Android">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Android">
       <formula>NOT(ISERROR(SEARCH("Android",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="WPF">
+      <formula>NOT(ISERROR(SEARCH("WPF",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Android">
+      <formula>NOT(ISERROR(SEARCH("Android",G17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Web">
-      <formula>NOT(ISERROR(SEARCH("Web",G17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Web",G26)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="WPF">
-      <formula>NOT(ISERROR(SEARCH("WPF",G17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("WPF",G26)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Android">
-      <formula>NOT(ISERROR(SEARCH("Android",G17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Android",G26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
